--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>928844.6795719453</v>
+        <v>942304.2628868297</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453906</v>
+        <v>5435918.088148477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668073</v>
+        <v>3904565.274227926</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7700066.23394987</v>
+        <v>8161008.286167305</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60.60442588782227</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>108.5883439214213</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.9706214097032</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -905,13 +907,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>59.51242484270968</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>209.2313751134515</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>3.505582738354478</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>237.0982876133505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>153.6566971813656</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>271.9233395057537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.40226423995151</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>203.8236142579129</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.1365454176276</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="I17" t="n">
-        <v>49.02746394088949</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>87.90348395353199</v>
+        <v>103.8936427371822</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2141,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>236.4885012347117</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2299,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>193.5927947728067</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2476,13 +2478,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>29.23243017406834</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>64.6251061739371</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>22.16731931190212</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2728,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>235.5743815161254</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>174.4275996389293</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -3004,7 +3006,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>5.70096827198573</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.01732390352688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>54.68688746169133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.07643038288654</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3272,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>65.42520756919177</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,16 +3717,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>217.8905457795456</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>65.97097243336135</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3749,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>180.2911637867203</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>72.15339398280427</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>18.57815195584329</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>115.5062120358783</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>62.98381360471874</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>81.5631279582261</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1768.366674996941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C2" t="n">
-        <v>1768.366674996941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.902745090002</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>949.5625296068986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>528.5321175605861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>119.8038334534183</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L2" t="n">
-        <v>771.1786414597752</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>1239.55310377619</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>1964.570219164463</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>1843.288010393979</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>1586.22751865349</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>1236.38996398997</v>
       </c>
       <c r="W2" t="n">
-        <v>2579.524527713341</v>
+        <v>852.6296631251389</v>
       </c>
       <c r="X2" t="n">
-        <v>2579.524527713341</v>
+        <v>451.9862652940915</v>
       </c>
       <c r="Y2" t="n">
-        <v>2178.587854661431</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>1075.685744088994</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1736.773916008282</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1736.773916008282</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
-        <v>1736.773916008282</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O3" t="n">
-        <v>2440.731006554176</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5872416475372</v>
+        <v>641.31505061373</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5872416475372</v>
+        <v>470.2216781754465</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>310.7270334983565</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>149.816218366676</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>149.816218366676</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1357.420359404569</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1074.622211950693</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>800.7364668902148</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>521.6668023990892</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X4" t="n">
-        <v>283.3229402587725</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.5872416475372</v>
+        <v>829.0147570077744</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1708.546389770622</v>
+        <v>2029.74262727803</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.421799083892</v>
+        <v>1619.6180365913</v>
       </c>
       <c r="D5" t="n">
-        <v>893.957869176953</v>
+        <v>1215.154106684361</v>
       </c>
       <c r="E5" t="n">
-        <v>479.6176536938497</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="F5" t="n">
-        <v>58.5872416475372</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K5" t="n">
-        <v>123.1055953709714</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L5" t="n">
-        <v>835.6969951832094</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>1560.714110571482</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N5" t="n">
-        <v>2285.731225959755</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2869.248521929679</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T5" t="n">
-        <v>2869.248521929679</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U5" t="n">
-        <v>2869.248521929679</v>
+        <v>3625.304178690308</v>
       </c>
       <c r="V5" t="n">
-        <v>2519.410967266159</v>
+        <v>3625.304178690308</v>
       </c>
       <c r="W5" t="n">
-        <v>2519.410967266159</v>
+        <v>3241.543877825477</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.767569435112</v>
+        <v>2840.900479994429</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.767569435112</v>
+        <v>2439.963806942519</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561.703728412895</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>1427.70865716184</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>1310.811499381233</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>1190.318683373561</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>1081.358803556065</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>974.3686908704041</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>903.6214779061202</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>882.8728865263604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>1075.685744088994</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K6" t="n">
-        <v>1531.492000354292</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L6" t="n">
-        <v>2192.580172273581</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M6" t="n">
-        <v>2338.0966705257</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="N6" t="n">
-        <v>2338.0966705257</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="O6" t="n">
-        <v>2338.0966705257</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="P6" t="n">
-        <v>2899.80256301423</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q6" t="n">
-        <v>2899.80256301423</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2929.36208237686</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>2821.372072491169</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>2662.030208678177</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>2464.679397816396</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>2250.96787080943</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>2037.734702545758</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1861.408720684651</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>1702.006761048481</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U7" t="n">
-        <v>793.9747653465236</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V7" t="n">
-        <v>520.0890202860455</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W7" t="n">
-        <v>241.0193557949199</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="X7" t="n">
-        <v>58.5872416475372</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.5872416475372</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3459378010175</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C8" t="n">
-        <v>888.3459378010175</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D8" t="n">
-        <v>888.3459378010175</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.557412652331</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M8" t="n">
-        <v>1756.574528040604</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.574528040604</v>
+        <v>2886.067931754113</v>
       </c>
       <c r="O8" t="n">
-        <v>2400.205384457709</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U8" t="n">
-        <v>2672.30159063637</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.464035972851</v>
+        <v>3351.530372167811</v>
       </c>
       <c r="W8" t="n">
-        <v>1938.70373510802</v>
+        <v>3347.989379502806</v>
       </c>
       <c r="X8" t="n">
-        <v>1538.060337276972</v>
+        <v>2947.345981671759</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.567117465507</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.481669832124</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.481669832124</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="N9" t="n">
-        <v>1900.498785220397</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1708.546389770622</v>
+        <v>2283.605302931784</v>
       </c>
       <c r="C11" t="n">
-        <v>1298.421799083892</v>
+        <v>1873.480712245054</v>
       </c>
       <c r="D11" t="n">
-        <v>893.957869176953</v>
+        <v>1469.016782338114</v>
       </c>
       <c r="E11" t="n">
-        <v>479.6176536938497</v>
+        <v>1054.676566855011</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>633.6461548086986</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1055953709714</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T11" t="n">
-        <v>2794.081007170961</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U11" t="n">
-        <v>2794.081007170961</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V11" t="n">
-        <v>2794.081007170961</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W11" t="n">
-        <v>2794.081007170961</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="X11" t="n">
-        <v>2393.437609339914</v>
+        <v>2693.826482596273</v>
       </c>
       <c r="Y11" t="n">
-        <v>2118.767569435112</v>
+        <v>2693.826482596273</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M12" t="n">
-        <v>719.6754135668255</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.986138268387</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.986138268387</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X13" t="n">
-        <v>1560.356496953953</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.27467387779</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.15008319106</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>278.4093671505278</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K14" t="n">
-        <v>278.4093671505278</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L14" t="n">
-        <v>991.0007669627659</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M14" t="n">
-        <v>991.0007669627659</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N14" t="n">
-        <v>1716.017882351039</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O14" t="n">
-        <v>2359.648738768144</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.36208237686</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X14" t="n">
-        <v>2528.718684545813</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y14" t="n">
-        <v>2127.782011493903</v>
+        <v>1909.129508679532</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>722.9833323892108</v>
       </c>
       <c r="M15" t="n">
-        <v>58.5872416475372</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="N15" t="n">
-        <v>489.5689897796294</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="O15" t="n">
-        <v>1193.526080325524</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P15" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>1170.510960022944</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.237727455811</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.773797548872</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.433582065768</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>862.403170019456</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G17" t="n">
-        <v>453.6748859122881</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H17" t="n">
-        <v>142.7663885400061</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5595,13 +5597,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
         <v>1435.775802995229</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.9166125873487</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="C19" t="n">
-        <v>513.9166125873487</v>
+        <v>198.186771162524</v>
       </c>
       <c r="D19" t="n">
-        <v>513.9166125873487</v>
+        <v>198.186771162524</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1254.571728532997</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>980.6859834725187</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W19" t="n">
-        <v>701.6163189813931</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X19" t="n">
-        <v>701.6163189813931</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y19" t="n">
-        <v>701.6163189813931</v>
+        <v>369.2801436008075</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
         <v>1320.262653899312</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>3071.501944945938</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>3732.590116865226</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>3732.590116865226</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N21" t="n">
-        <v>3732.590116865226</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O21" t="n">
-        <v>4100.47899204261</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3398.739489000507</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="C22" t="n">
-        <v>3398.739489000507</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="D22" t="n">
-        <v>3398.739489000507</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="E22" t="n">
-        <v>3398.739489000507</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="F22" t="n">
-        <v>3398.739489000507</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
         <v>3132.785987910289</v>
@@ -5932,28 +5934,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>4236.915842436593</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>3954.117694982718</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>3680.231949922239</v>
       </c>
       <c r="W22" t="n">
-        <v>3398.739489000507</v>
+        <v>3680.231949922239</v>
       </c>
       <c r="X22" t="n">
-        <v>3398.739489000507</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="Y22" t="n">
-        <v>3398.739489000507</v>
+        <v>3441.888087781923</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5974,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6072,10 +6074,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>754.331869609911</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
         <v>1435.775802995229</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>449.516440688703</v>
+        <v>3897.994067644927</v>
       </c>
       <c r="C25" t="n">
-        <v>419.9887334421693</v>
+        <v>3726.900695206644</v>
       </c>
       <c r="D25" t="n">
-        <v>260.4940887650794</v>
+        <v>3726.900695206644</v>
       </c>
       <c r="E25" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.295707834299</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.295707834299</v>
+        <v>4085.693774038972</v>
       </c>
       <c r="X25" t="n">
-        <v>861.9518456939827</v>
+        <v>4085.693774038972</v>
       </c>
       <c r="Y25" t="n">
-        <v>637.2161470827474</v>
+        <v>4085.693774038972</v>
       </c>
     </row>
     <row r="26">
@@ -6251,10 +6253,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U26" t="n">
         <v>4494.590496051882</v>
@@ -6303,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1832.990726493717</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>873.475448120126</v>
+        <v>3957.071651505653</v>
       </c>
       <c r="C28" t="n">
-        <v>702.3820756818425</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D28" t="n">
-        <v>702.3820756818425</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E28" t="n">
-        <v>541.471260550162</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F28" t="n">
-        <v>376.8401346607533</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>873.475448120126</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>873.475448120126</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>873.475448120126</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X28" t="n">
-        <v>873.475448120126</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y28" t="n">
-        <v>873.475448120126</v>
+        <v>4144.771357899697</v>
       </c>
     </row>
     <row r="29">
@@ -6491,19 +6493,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4350.714314740463</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3743.816268336454</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3360.055967471622</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2959.412569640574</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
         <v>2959.412569640574</v>
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3300.036378984746</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="C31" t="n">
-        <v>3300.036378984746</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.036378984746</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="E31" t="n">
-        <v>3300.036378984746</v>
+        <v>3464.667504874155</v>
       </c>
       <c r="F31" t="n">
         <v>3300.036378984746</v>
@@ -6652,19 +6654,19 @@
         <v>4422.636145507842</v>
       </c>
       <c r="U31" t="n">
-        <v>4139.837998053967</v>
+        <v>4416.877591697756</v>
       </c>
       <c r="V31" t="n">
-        <v>3865.952252993488</v>
+        <v>4142.991846637277</v>
       </c>
       <c r="W31" t="n">
-        <v>3586.882588502363</v>
+        <v>3863.922182146152</v>
       </c>
       <c r="X31" t="n">
-        <v>3348.538726362046</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="Y31" t="n">
-        <v>3300.036378984746</v>
+        <v>3625.578320005835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.231502096085</v>
+        <v>971.8633271658769</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>641.2753100505033</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>480.3644949188228</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>315.7333690294141</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>148.4829779549575</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>148.4829779549575</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.978107866783</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y34" t="n">
-        <v>1253.93120849013</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7017,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7129,16 +7131,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>4137.972894620189</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>4137.972894620189</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q39" t="n">
         <v>4662.18488453114</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>275.6758118380055</v>
+        <v>697.5409622935802</v>
       </c>
       <c r="C40" t="n">
-        <v>275.6758118380055</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="D40" t="n">
-        <v>275.6758118380055</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E40" t="n">
-        <v>275.6758118380055</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F40" t="n">
-        <v>275.6758118380055</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>275.6758118380055</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>917.6324226769595</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>697.5409622935802</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.6758118380055</v>
+        <v>697.5409622935802</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1249.325298926211</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.687953033927</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D41" t="n">
-        <v>778.224023126987</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="E41" t="n">
-        <v>778.224023126987</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="F41" t="n">
-        <v>778.224023126987</v>
+        <v>263.2893963750603</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>263.2893963750603</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L41" t="n">
-        <v>58.5872416475372</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M41" t="n">
-        <v>783.60435703581</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N41" t="n">
-        <v>1508.621472424083</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T41" t="n">
-        <v>2794.081007170961</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U41" t="n">
-        <v>2794.081007170961</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V41" t="n">
-        <v>2444.243452507442</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W41" t="n">
-        <v>2060.48315164261</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X41" t="n">
-        <v>2060.48315164261</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y41" t="n">
-        <v>1659.5464785907</v>
+        <v>1909.129508679532</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1561.703728412895</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>1427.70865716184</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>1310.811499381233</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>1190.318683373561</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>1081.358803556065</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>974.3686908704041</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>903.6214779061202</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>882.8728865263604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>882.8728865263604</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K42" t="n">
-        <v>882.8728865263604</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L42" t="n">
-        <v>882.8728865263604</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M42" t="n">
-        <v>1607.890001914633</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N42" t="n">
-        <v>2332.907117302906</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="O42" t="n">
-        <v>2929.36208237686</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P42" t="n">
-        <v>2929.36208237686</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q42" t="n">
-        <v>2929.36208237686</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R42" t="n">
-        <v>2929.36208237686</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>2821.372072491169</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>2662.030208678177</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>2464.679397816396</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>2250.96787080943</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>2037.734702545758</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1861.408720684651</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>1702.006761048481</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2474836711237</v>
+        <v>3408.076218944774</v>
       </c>
       <c r="C43" t="n">
-        <v>879.2474836711237</v>
+        <v>3236.98284650649</v>
       </c>
       <c r="D43" t="n">
-        <v>719.7528389940337</v>
+        <v>3077.4882018294</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8420238623532</v>
+        <v>2916.57738669772</v>
       </c>
       <c r="F43" t="n">
-        <v>394.2108979729445</v>
+        <v>2751.946260808311</v>
       </c>
       <c r="G43" t="n">
-        <v>226.9605068984879</v>
+        <v>2679.064044664064</v>
       </c>
       <c r="H43" t="n">
-        <v>77.35305170394457</v>
+        <v>2529.456589469521</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2529.456589469521</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2543.539138874731</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2698.091466596969</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2957.988566877029</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>3247.252623317523</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3528.091405711773</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3787.652016038247</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3993.327456287859</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S43" t="n">
-        <v>1401.594370148297</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T43" t="n">
-        <v>1162.045631125</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U43" t="n">
-        <v>879.2474836711237</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V43" t="n">
-        <v>879.2474836711237</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W43" t="n">
-        <v>879.2474836711237</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="X43" t="n">
-        <v>879.2474836711237</v>
+        <v>3820.511623950053</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.2474836711237</v>
+        <v>3595.775925338818</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1410.879115737901</v>
+        <v>2450.773039324342</v>
       </c>
       <c r="C44" t="n">
-        <v>1000.754525051171</v>
+        <v>2040.648448637613</v>
       </c>
       <c r="D44" t="n">
-        <v>596.2905951442318</v>
+        <v>1636.184518730673</v>
       </c>
       <c r="E44" t="n">
-        <v>479.6176536938497</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>58.5872416475372</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L44" t="n">
-        <v>771.1786414597752</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M44" t="n">
-        <v>1354.027262274144</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N44" t="n">
-        <v>2079.044377662417</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O44" t="n">
-        <v>2079.044377662417</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U44" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.036968454301</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W44" t="n">
-        <v>2222.036968454301</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X44" t="n">
-        <v>2222.036968454301</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y44" t="n">
-        <v>1821.100295402391</v>
+        <v>2860.994218988832</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L45" t="n">
-        <v>882.8728865263604</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M45" t="n">
-        <v>1607.890001914633</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N45" t="n">
-        <v>2225.404991830966</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O45" t="n">
-        <v>2929.36208237686</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P45" t="n">
-        <v>2929.36208237686</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.9747653465236</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C46" t="n">
-        <v>793.9747653465236</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D46" t="n">
-        <v>793.9747653465236</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1076.772912800399</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>793.9747653465236</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V46" t="n">
-        <v>793.9747653465236</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W46" t="n">
-        <v>793.9747653465236</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="X46" t="n">
-        <v>793.9747653465236</v>
+        <v>493.6125147270871</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.9747653465236</v>
+        <v>268.8768161158518</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>566.3957419483738</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>194.4481311025014</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>256.4660343593096</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8301,7 +8303,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>204.5506456092453</v>
+        <v>643.1706503868311</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,13 +8312,13 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,13 +8458,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>277.9350934446626</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>621.8374005056297</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>334.9641759627224</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>234.5374718434445</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>138.4936455994031</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>287.6689177404308</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,16 +8777,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N12" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>295.3661423464298</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>355.3209736268326</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>704.403637616307</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5284925170754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,16 +9245,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>281.1102389695264</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>429.3564034215999</v>
+        <v>725.2815728477947</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9720,13 +9722,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>364.1002077779613</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,7 +10196,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
@@ -10203,7 +10205,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10428,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>230.3884483633763</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>280.2152552851256</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>628.4082196144384</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O42" t="n">
-        <v>660.2312417009638</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>682.0262050776196</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>355.3209736268326</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>676.9459084607525</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,19 +22552,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>247.1949865107369</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>111.3960752911885</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>58.60726575400878</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -22756,13 +22758,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22793,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>74.41583961113047</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>45.25851170963347</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>248.9256229449248</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>376.4171151178286</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.8290187080403</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>250.9843040847306</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>125.0039668156371</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.716703627893</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>200.8173870081832</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>28.83362056170949</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="I17" t="n">
-        <v>36.46078111520808</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>71.39822302683173</v>
+        <v>55.40806424318154</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.6647503983531635</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.68617307340762</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>140.1500085398323</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>211.6538616722773</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>147.2151194019985</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>44.39578446321164</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24731,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>45.55681957368046</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,10 +24846,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>274.2691977073513</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.471017721596</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>60.49569797502578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4119112422364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25561,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>82.68617307340614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>18.06987773936785</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>340.0523723465012</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>127.5082486118388</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.42449318090773</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.60443348087381</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>294.6906012923939</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>333.943492716672</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579294.4286916138</v>
+        <v>494817.3486864669</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579294.4286916138</v>
+        <v>692735.6600403929</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579294.4286916138</v>
+        <v>692735.660040393</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579294.4286916137</v>
+        <v>692735.6600403929</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579294.4286916136</v>
+        <v>692735.6600403928</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214082</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753331.3480214082</v>
+        <v>753331.3480214083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753331.3480214081</v>
+        <v>753331.3480214083</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753331.3480214082</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214082</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579294.4286916135</v>
+        <v>692735.6600403929</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579294.4286916137</v>
+        <v>692735.6600403931</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211600.6413073396</v>
+        <v>180746.0634768</v>
       </c>
       <c r="C2" t="n">
-        <v>211600.6413073395</v>
+        <v>253034.143763034</v>
       </c>
       <c r="D2" t="n">
-        <v>211600.6413073395</v>
+        <v>253034.1437630341</v>
       </c>
       <c r="E2" t="n">
-        <v>211600.6413073396</v>
+        <v>253034.1437630339</v>
       </c>
       <c r="F2" t="n">
-        <v>211600.6413073395</v>
+        <v>253034.1437630341</v>
       </c>
       <c r="G2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="H2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="I2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
@@ -26341,7 +26343,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="L2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
         <v>275166.2341583392</v>
@@ -26350,10 +26352,10 @@
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>211600.6413073396</v>
+        <v>253034.1437630341</v>
       </c>
       <c r="P2" t="n">
-        <v>211600.6413073395</v>
+        <v>253034.143763034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11847.07869616807</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="C4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="D4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>14205.56588614525</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123824.4933240519</v>
+        <v>-69669.27893915409</v>
       </c>
       <c r="C6" t="n">
-        <v>121599.6589590432</v>
+        <v>-15654.49626315132</v>
       </c>
       <c r="D6" t="n">
-        <v>121599.6589590432</v>
+        <v>143506.3744883152</v>
       </c>
       <c r="E6" t="n">
-        <v>155227.2589590433</v>
+        <v>177133.9744883151</v>
       </c>
       <c r="F6" t="n">
-        <v>155227.2589590432</v>
+        <v>177133.9744883152</v>
       </c>
       <c r="G6" t="n">
-        <v>70100.46574428795</v>
+        <v>147494.7656334922</v>
       </c>
       <c r="H6" t="n">
         <v>188835.6501764019</v>
@@ -26543,25 +26545,25 @@
         <v>188835.6501764018</v>
       </c>
       <c r="J6" t="n">
-        <v>-2776.852993950903</v>
+        <v>52240.84937050688</v>
       </c>
       <c r="K6" t="n">
-        <v>188835.6501764018</v>
+        <v>62043.22746936798</v>
       </c>
       <c r="L6" t="n">
         <v>188835.6501764018</v>
       </c>
       <c r="M6" t="n">
-        <v>188835.6501764018</v>
+        <v>188835.6501764019</v>
       </c>
       <c r="N6" t="n">
         <v>188835.6501764018</v>
       </c>
       <c r="O6" t="n">
-        <v>155227.2589590433</v>
+        <v>177133.9744883152</v>
       </c>
       <c r="P6" t="n">
-        <v>155227.2589590432</v>
+        <v>177133.9744883151</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525671</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>473.1055174913283</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>367.8628411009269</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>140.1884960996976</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>163.5537436026903</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35021,7 +35023,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>146.9863618708279</v>
+        <v>585.6063666484137</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,13 +35178,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>182.4496953818178</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>528.9251097490104</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7859928434445</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>65.17005426609514</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>194.0195544595466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N12" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>222.0425510131218</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>261.6716103459484</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>435.3350991233254</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>227.9168455757764</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>371.6049244215998</v>
+        <v>667.5300938477947</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>309.8405727751575</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
@@ -36923,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>176.1288133605725</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>186.9250308280801</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>535.2184439886553</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O42" t="n">
-        <v>602.4797627009638</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>588.7359806205741</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>261.6716103459484</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>623.7525150670026</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>942304.2628868297</v>
+        <v>939699.2071137414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.088148477</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3904565.274227926</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8161008.286167305</v>
+        <v>8141312.04645583</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>108.5883439214213</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>162.7629789637622</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.9706214097032</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>130.8797781884335</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>209.2313751134515</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1059,22 +1059,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>190.985630196747</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>27.35334490128957</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>126.9575120803466</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>3.505582738354478</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713472</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>153.6566971813656</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>127.4610290134692</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>203.8236142579129</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>108.7053232176858</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1669,7 +1669,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>251.1365454176276</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>282.1353944293379</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>103.8936427371822</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>98.41262563052148</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>101.6409518870423</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>236.4885012347117</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>64.6251061739371</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2608,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>22.16731931190212</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>65.4838304246407</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>5.70096827198573</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>304.274343829684</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>343.2559819443612</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.68688746169133</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>217.8905457795456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>180.2911637867203</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.15339398280427</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>12.33276238106388</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>62.98381360471874</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>81.5631279582261</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.76508562960205</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>216.5644706858345</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>216.5644706858345</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>1843.288010393979</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>1586.22751865349</v>
+        <v>3163.901252647471</v>
       </c>
       <c r="V2" t="n">
-        <v>1236.38996398997</v>
+        <v>2814.063697983952</v>
       </c>
       <c r="W2" t="n">
-        <v>852.6296631251389</v>
+        <v>2430.30339711912</v>
       </c>
       <c r="X2" t="n">
-        <v>451.9862652940915</v>
+        <v>2029.659999288073</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.9862652940915</v>
+        <v>1628.723326236163</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="M3" t="n">
-        <v>1571.411346813777</v>
+        <v>3130.902860036856</v>
       </c>
       <c r="N3" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.31505061373</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>470.2216781754465</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7270334983565</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>149.816218366676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>149.816218366676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.094317759326</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.75045561901</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.0147570077744</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.74262727803</v>
+        <v>1526.492102120577</v>
       </c>
       <c r="C5" t="n">
-        <v>1619.6180365913</v>
+        <v>1526.492102120577</v>
       </c>
       <c r="D5" t="n">
-        <v>1215.154106684361</v>
+        <v>1122.028172213637</v>
       </c>
       <c r="E5" t="n">
-        <v>800.8138912012572</v>
+        <v>1122.028172213637</v>
       </c>
       <c r="F5" t="n">
-        <v>800.8138912012572</v>
+        <v>700.9977601673247</v>
       </c>
       <c r="G5" t="n">
-        <v>392.0856070940894</v>
+        <v>292.2694760601569</v>
       </c>
       <c r="H5" t="n">
-        <v>81.1771097218074</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>335.3625811895617</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>873.5220822986012</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1586.113482110839</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="M5" t="n">
-        <v>2362.432073102593</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>2524.350279269257</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>3167.981135686362</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>4058.85548609037</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3836.649002037229</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>3625.304178690308</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>3625.304178690308</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>3241.543877825477</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X5" t="n">
-        <v>2840.900479994429</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2439.963806942519</v>
+        <v>1936.713281785066</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>536.9833659871061</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>1198.071537906394</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>1777.821840888324</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N6" t="n">
-        <v>1777.821840888324</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O6" t="n">
-        <v>1777.821840888324</v>
+        <v>1651.331099884809</v>
       </c>
       <c r="P6" t="n">
-        <v>1777.821840888324</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1170.510960022944</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C7" t="n">
-        <v>999.4175875846604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>839.9229429075704</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>679.0121277758899</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>514.3810018864812</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>347.1306108120246</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>197.5231556174813</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1610.576006342658</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1610.576006342658</v>
+        <v>1223.808267751545</v>
       </c>
       <c r="U7" t="n">
-        <v>1610.576006342658</v>
+        <v>1223.808267751545</v>
       </c>
       <c r="V7" t="n">
-        <v>1610.576006342658</v>
+        <v>949.9225226910673</v>
       </c>
       <c r="W7" t="n">
-        <v>1582.946365028224</v>
+        <v>670.8528581999417</v>
       </c>
       <c r="X7" t="n">
-        <v>1582.946365028224</v>
+        <v>432.508996059625</v>
       </c>
       <c r="Y7" t="n">
-        <v>1358.210666416988</v>
+        <v>432.508996059625</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2537.124802007269</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.000211320539</v>
+        <v>1612.15684409679</v>
       </c>
       <c r="D8" t="n">
-        <v>1722.5362814136</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E8" t="n">
-        <v>1308.196065930496</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F8" t="n">
-        <v>887.1656538841841</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G8" t="n">
-        <v>478.4373697770162</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>335.3625811895617</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>873.5220822986012</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>1586.113482110839</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>2362.432073102593</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2886.067931754113</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O8" t="n">
-        <v>3529.698788171218</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>4058.85548609037</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>4058.85548609037</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3923.574410884471</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3701.36792683133</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3701.36792683133</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>3351.530372167811</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W8" t="n">
-        <v>3347.989379502806</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X8" t="n">
-        <v>2947.345981671759</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y8" t="n">
-        <v>2947.345981671759</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>273.9899672844406</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>273.9899672844406</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>550.0511229147953</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>550.0511229147953</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>1423.709215026413</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.510960022944</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>999.4175875846604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>839.9229429075704</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>679.0121277758899</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>514.3810018864812</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>347.1306108120246</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>197.5231556174813</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1610.576006342658</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1610.576006342658</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>1610.576006342658</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>1610.576006342658</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X10" t="n">
-        <v>1582.946365028224</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>1358.210666416988</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2283.605302931784</v>
+        <v>1620.243347239561</v>
       </c>
       <c r="C11" t="n">
-        <v>1873.480712245054</v>
+        <v>1210.118756552831</v>
       </c>
       <c r="D11" t="n">
-        <v>1469.016782338114</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="E11" t="n">
-        <v>1054.676566855011</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="F11" t="n">
-        <v>633.6461548086986</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G11" t="n">
-        <v>478.4373697770162</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H11" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>81.1771097218074</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3366108308469</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1331.928010643085</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2108.246601634839</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>2861.427618273457</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O11" t="n">
-        <v>3505.058474690562</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P11" t="n">
-        <v>3697.137833605513</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q11" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3923.574410884471</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3701.36792683133</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U11" t="n">
-        <v>3444.30743509084</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V11" t="n">
-        <v>3094.469880427321</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W11" t="n">
-        <v>3094.469880427321</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X11" t="n">
-        <v>2693.826482596273</v>
+        <v>2159.21304105907</v>
       </c>
       <c r="Y11" t="n">
-        <v>2693.826482596273</v>
+        <v>2030.46452690405</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>742.2652816410956</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>1565.960413083777</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N12" t="n">
-        <v>1565.960413083777</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O12" t="n">
-        <v>1565.960413083777</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P12" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>816.5646334207938</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>542.6788883603158</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>263.6092238691901</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>81.1771097218074</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1498.908329015042</v>
+        <v>1919.83018481885</v>
       </c>
       <c r="C14" t="n">
-        <v>1088.783738328312</v>
+        <v>1509.70559413212</v>
       </c>
       <c r="D14" t="n">
-        <v>684.3198084213727</v>
+        <v>1105.241664225181</v>
       </c>
       <c r="E14" t="n">
-        <v>684.3198084213727</v>
+        <v>690.9014487420777</v>
       </c>
       <c r="F14" t="n">
-        <v>684.3198084213727</v>
+        <v>269.8710366957653</v>
       </c>
       <c r="G14" t="n">
-        <v>478.4373697770162</v>
+        <v>269.8710366957653</v>
       </c>
       <c r="H14" t="n">
-        <v>167.5288724047342</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I14" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>335.3625811895617</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>873.5220822986012</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.113482110839</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M14" t="n">
-        <v>2362.432073102593</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N14" t="n">
-        <v>3115.613089741211</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O14" t="n">
-        <v>3759.243946158316</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P14" t="n">
-        <v>4018.298840400805</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q14" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3923.574410884471</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3701.36792683133</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3444.30743509084</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.469880427321</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W14" t="n">
-        <v>2710.709579562489</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.066181731442</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.129508679532</v>
+        <v>1919.83018481885</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>722.9833323892108</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M15" t="n">
-        <v>1565.960413083777</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N15" t="n">
-        <v>1565.960413083777</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O15" t="n">
-        <v>1565.960413083777</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P15" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.510960022944</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>999.4175875846604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>839.9229429075704</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>679.0121277758899</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>514.3810018864812</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>347.1306108120246</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>197.5231556174813</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1424.184238222568</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.184238222568</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>1170.510960022944</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>1170.510960022944</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.510960022944</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.510960022944</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1170.510960022944</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>464.5807072718708</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>369.2801436008075</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C19" t="n">
-        <v>198.186771162524</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D19" t="n">
-        <v>198.186771162524</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>832.3597043523594</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>594.0158422120428</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>369.2801436008075</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4559.51725636241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4337.310772309269</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4080.250280568779</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3730.41272590526</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.652425040428</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2946.009027209381</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2545.072354157471</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N21" t="n">
-        <v>1129.033635947823</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.915842436593</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>3954.117694982718</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>3680.231949922239</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>3680.231949922239</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3441.888087781923</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3897.994067644927</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3726.900695206644</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3726.900695206644</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4150.971659063151</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4150.971659063151</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4085.693774038972</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4085.693774038972</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4085.693774038972</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1129.033635947823</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O27" t="n">
-        <v>1832.990726493717</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3957.071651505653</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C28" t="n">
-        <v>3934.680419877469</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.185775200379</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E28" t="n">
-        <v>3614.274960068698</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F28" t="n">
-        <v>3449.64383417929</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G28" t="n">
-        <v>3282.393443104833</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1435.775802995229</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4416.877591697756</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.991846637277</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3863.922182146152</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.578320005835</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>971.8633271658769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>800.7699547275934</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>641.2753100505033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>480.3644949188228</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>315.7333690294141</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>148.4829779549575</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>148.4829779549575</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1159.563033559921</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>874.0699105066985</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>3264.314802508572</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="N39" t="n">
-        <v>4137.972894620189</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O39" t="n">
-        <v>4137.972894620189</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P39" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.5409622935802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1196.702087168085</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>917.6324226769595</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>697.5409622935802</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>697.5409622935802</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1498.908329015042</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.783738328312</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>684.3198084213727</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>684.3198084213727</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>263.2893963750603</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>263.2893963750603</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>335.3625811895617</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>873.5220822986012</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.113482110839</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M41" t="n">
-        <v>1771.169262630639</v>
+        <v>1642.379480795845</v>
       </c>
       <c r="N41" t="n">
-        <v>2524.350279269257</v>
+        <v>2395.560497434463</v>
       </c>
       <c r="O41" t="n">
-        <v>3167.981135686362</v>
+        <v>3039.191353851568</v>
       </c>
       <c r="P41" t="n">
-        <v>3697.137833605513</v>
+        <v>3568.348051770719</v>
       </c>
       <c r="Q41" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3923.574410884471</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3701.36792683133</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>3444.30743509084</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>3094.469880427321</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>2710.709579562489</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.066181731442</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.129508679532</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>273.9899672844406</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>729.7962235497394</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>729.7962235497394</v>
+        <v>365.6776752107171</v>
       </c>
       <c r="M42" t="n">
-        <v>729.7962235497394</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>1748.262321525694</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
-        <v>2098.106786209677</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3408.076218944774</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>3236.98284650649</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>3077.4882018294</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2916.57738669772</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2751.946260808311</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2679.064044664064</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2529.456589469521</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2529.456589469521</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2543.539138874731</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2698.091466596969</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2957.988566877029</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>3247.252623317523</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3528.091405711773</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3787.652016038247</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3993.327456287859</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>4058.85548609037</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>4058.85548609037</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>4058.85548609037</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>4058.85548609037</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>4058.85548609037</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>4058.85548609037</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.85548609037</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>3820.511623950053</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3595.775925338818</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2450.773039324342</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C44" t="n">
-        <v>2040.648448637613</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.184518730673</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.84430324757</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>800.8138912012572</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>392.0856070940894</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>335.3625811895617</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>873.5220822986012</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.113482110839</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2362.432073102593</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>3115.613089741211</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>3759.243946158316</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P44" t="n">
-        <v>4018.298840400805</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q44" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>3709.017931426851</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.257630562019</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X44" t="n">
-        <v>2924.614232730972</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y44" t="n">
-        <v>2860.994218988832</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>273.9899672844406</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>729.7962235497394</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>729.7962235497394</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M45" t="n">
-        <v>729.7962235497394</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N45" t="n">
-        <v>729.7962235497394</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>1748.262321525694</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2098.106786209677</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1371.02726731936</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1088.229119865484</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>814.3433748050059</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>731.9563768674037</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>493.6125147270871</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>268.8768161158518</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>385.994630297783</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>425.4271248393443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8221,13 +8221,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>632.9083759426777</v>
       </c>
       <c r="M5" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>256.4660343593096</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>643.1706503868311</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>621.8374005056297</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>334.9641759627224</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,13 +8704,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>101.2005034130957</v>
       </c>
       <c r="P11" t="n">
-        <v>287.6689177404308</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8774,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>889.5795680239546</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8944,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>355.3209736268326</v>
+        <v>461.973027718246</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>704.403637616307</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9026,10 +9026,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9491,16 +9491,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>241.07214733527</v>
       </c>
       <c r="O21" t="n">
-        <v>725.2815728477947</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9965,16 +9965,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>364.1002077779613</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10196,25 +10196,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>712.2489309321196</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10448,10 +10448,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10682,7 +10682,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>177.79615091923</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>230.3884483633763</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11065,10 +11065,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>280.2152552851256</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>167.7016467270033</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>351.0253904607682</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>311.297161113964</v>
       </c>
       <c r="P44" t="n">
-        <v>355.3209736268326</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O45" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22555,16 +22555,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22600,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>111.3960752911885</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>91.72690785932278</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>58.60726575400878</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -22758,13 +22758,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>176.9196342101257</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>45.25851170963347</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>46.16762143631792</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>248.9256229449248</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>279.0658326995159</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>376.4171151178286</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>194.7158398879882</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.9843040847306</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>269.4662773079216</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8173870081832</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>199.0940891808733</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>28.83362056170949</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>55.40806424318154</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23910,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>124.0757159946015</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.28731256679784</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24144,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24177,10 +24177,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6647503983531635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>211.6538616722773</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>147.2151194019985</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>100.0940567390713</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>274.2691977073513</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.083197172522887</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>60.49569797502578</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>18.06987773936785</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>127.5082486118388</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>93.42449318090773</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25839,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>388.0865282268061</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.943492716672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>194.7158398879882</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>494817.3486864669</v>
+        <v>655267.2312242207</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692735.6600403929</v>
+        <v>655267.2312242207</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>692735.660040393</v>
+        <v>655267.2312242207</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692735.6600403929</v>
+        <v>655267.2312242208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692735.6600403928</v>
+        <v>655267.2312242208</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753331.3480214082</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214082</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753331.3480214083</v>
+        <v>753331.3480214084</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753331.3480214082</v>
+        <v>753331.3480214083</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692735.6600403929</v>
+        <v>655267.2312242208</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692735.6600403931</v>
+        <v>655267.2312242207</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180746.0634768</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="C2" t="n">
-        <v>253034.143763034</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="D2" t="n">
-        <v>253034.1437630341</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="E2" t="n">
-        <v>253034.1437630339</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="F2" t="n">
-        <v>253034.1437630341</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="G2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="H2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="I2" t="n">
+        <v>275166.2341583392</v>
+      </c>
+      <c r="J2" t="n">
         <v>275166.2341583391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>275166.2341583392</v>
       </c>
       <c r="K2" t="n">
         <v>275166.2341583392</v>
@@ -26346,16 +26346,16 @@
         <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="N2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>253034.1437630341</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="P2" t="n">
-        <v>253034.143763034</v>
+        <v>239349.0998076063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
-        <v>159160.8707514664</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41340.88454290959</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
-        <v>126792.4227070339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10090.76744434242</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="C4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="D4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="F4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155124</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26456,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="P4" t="n">
-        <v>14205.56588614525</v>
+        <v>13426.58272155123</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>95322.20338857363</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>95322.20338857363</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69669.27893915409</v>
+        <v>-172897.0134448085</v>
       </c>
       <c r="C6" t="n">
-        <v>-15654.49626315132</v>
+        <v>135901.7281672353</v>
       </c>
       <c r="D6" t="n">
-        <v>143506.3744883152</v>
+        <v>135901.7281672352</v>
       </c>
       <c r="E6" t="n">
-        <v>177133.9744883151</v>
+        <v>169529.3281672352</v>
       </c>
       <c r="F6" t="n">
-        <v>177133.9744883152</v>
+        <v>169529.3281672353</v>
       </c>
       <c r="G6" t="n">
-        <v>147494.7656334922</v>
+        <v>121751.6732301202</v>
       </c>
       <c r="H6" t="n">
-        <v>188835.6501764019</v>
+        <v>188655.0695837527</v>
       </c>
       <c r="I6" t="n">
-        <v>188835.6501764018</v>
+        <v>188655.0695837527</v>
       </c>
       <c r="J6" t="n">
-        <v>52240.84937050688</v>
+        <v>-52436.52350398397</v>
       </c>
       <c r="K6" t="n">
-        <v>62043.22746936798</v>
+        <v>188655.0695837527</v>
       </c>
       <c r="L6" t="n">
-        <v>188835.6501764018</v>
+        <v>188655.0695837528</v>
       </c>
       <c r="M6" t="n">
-        <v>188835.6501764019</v>
+        <v>188655.0695837527</v>
       </c>
       <c r="N6" t="n">
-        <v>188835.6501764018</v>
+        <v>188655.0695837527</v>
       </c>
       <c r="O6" t="n">
-        <v>177133.9744883152</v>
+        <v>169529.3281672352</v>
       </c>
       <c r="P6" t="n">
-        <v>177133.9744883151</v>
+        <v>169529.3281672352</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>492.650301152567</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.8323496101924</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525671</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.8323496101924</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8628411009269</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="M5" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>163.5537436026903</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>528.9251097490104</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>278.8496521518734</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,13 +35424,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>8.010727787312575</v>
       </c>
       <c r="P11" t="n">
-        <v>194.0195544595466</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35664,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>261.6716103459484</v>
+        <v>368.3236644373619</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>648.289113805458</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187.87875394152</v>
       </c>
       <c r="O21" t="n">
-        <v>667.5300938477947</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>656.1344071212706</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>120.2318671808126</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>176.1288133605725</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37785,10 +37785,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>186.9250308280801</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>77.66784232785126</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>218.1073854881809</v>
       </c>
       <c r="P44" t="n">
-        <v>261.6716103459484</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
